--- a/Normal2Counted.xlsx
+++ b/Normal2Counted.xlsx
@@ -1519,11 +1519,15 @@
           <t>Average</t>
         </is>
       </c>
-      <c r="P13" t="n">
-        <v>354.84</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>79.676</v>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>354.84</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>79.676</t>
+        </is>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1604,11 +1608,15 @@
           <t>Median</t>
         </is>
       </c>
-      <c r="P14" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>58.5</v>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>241.5</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1687,11 +1695,15 @@
           <t>Variance</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>104747.53253012</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4822.39661044176</v>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>104747.53</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>4822.39</t>
+        </is>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -1772,11 +1784,15 @@
           <t>Standard Deviation</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>323.647234701797</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>69.4434778106754</v>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>323.64</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>69.44</t>
+        </is>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
